--- a/public/upload/deliverynote.xlsx
+++ b/public/upload/deliverynote.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="31">
   <si>
     <t>Id</t>
   </si>
@@ -92,7 +92,7 @@
     <t>desktop</t>
   </si>
   <si>
-    <t>ST26144</t>
+    <t>ST21218</t>
   </si>
   <si>
     <t>7 th</t>
@@ -104,13 +104,10 @@
     <t>Jacks</t>
   </si>
   <si>
-    <t>2022-08-04 09:46:49</t>
-  </si>
-  <si>
-    <t>2022-08-04 00:00:00</t>
-  </si>
-  <si>
-    <t>ST26145</t>
+    <t>2022-08-04 09:46:28</t>
+  </si>
+  <si>
+    <t>2022-09-01 00:00:00</t>
   </si>
 </sst>
 </file>
@@ -446,7 +443,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:W3"/>
+  <dimension ref="A1:W2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A1" sqref="A1"/>
@@ -527,7 +524,7 @@
     </row>
     <row r="2" spans="1:23">
       <c r="A2">
-        <v>26143</v>
+        <v>21217</v>
       </c>
       <c r="B2" t="s">
         <v>23</v>
@@ -565,49 +562,6 @@
         <v>29</v>
       </c>
       <c r="W2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="3" spans="1:23">
-      <c r="A3">
-        <v>26144</v>
-      </c>
-      <c r="B3" t="s">
-        <v>23</v>
-      </c>
-      <c r="C3" t="s">
-        <v>24</v>
-      </c>
-      <c r="D3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E3" t="s">
-        <v>26</v>
-      </c>
-      <c r="F3" t="s">
-        <v>27</v>
-      </c>
-      <c r="G3"/>
-      <c r="H3"/>
-      <c r="I3"/>
-      <c r="J3"/>
-      <c r="K3"/>
-      <c r="L3"/>
-      <c r="M3"/>
-      <c r="N3"/>
-      <c r="O3"/>
-      <c r="P3"/>
-      <c r="Q3"/>
-      <c r="R3"/>
-      <c r="S3" t="s">
-        <v>28</v>
-      </c>
-      <c r="T3"/>
-      <c r="U3"/>
-      <c r="V3" t="s">
-        <v>29</v>
-      </c>
-      <c r="W3" t="s">
         <v>30</v>
       </c>
     </row>

--- a/public/upload/deliverynote.xlsx
+++ b/public/upload/deliverynote.xlsx
@@ -92,22 +92,22 @@
     <t>desktop</t>
   </si>
   <si>
-    <t>ST21218</t>
-  </si>
-  <si>
-    <t>7 th</t>
-  </si>
-  <si>
-    <t>hp</t>
-  </si>
-  <si>
-    <t>Jacks</t>
-  </si>
-  <si>
-    <t>2022-08-04 09:46:28</t>
-  </si>
-  <si>
-    <t>2022-09-01 00:00:00</t>
+    <t>ST620</t>
+  </si>
+  <si>
+    <t>6 th</t>
+  </si>
+  <si>
+    <t>Lenovo</t>
+  </si>
+  <si>
+    <t>kirubi</t>
+  </si>
+  <si>
+    <t>2022-09-08 08:51:18</t>
+  </si>
+  <si>
+    <t>2022-09-08 00:00:00</t>
   </si>
 </sst>
 </file>
@@ -524,7 +524,7 @@
     </row>
     <row r="2" spans="1:23">
       <c r="A2">
-        <v>21217</v>
+        <v>630</v>
       </c>
       <c r="B2" t="s">
         <v>23</v>

--- a/public/upload/deliverynote.xlsx
+++ b/public/upload/deliverynote.xlsx
@@ -92,7 +92,7 @@
     <t>desktop</t>
   </si>
   <si>
-    <t>ST620</t>
+    <t>ST618</t>
   </si>
   <si>
     <t>6 th</t>
@@ -101,13 +101,13 @@
     <t>Lenovo</t>
   </si>
   <si>
-    <t>kirubi</t>
+    <t>Jacks</t>
   </si>
   <si>
     <t>2022-09-08 08:51:18</t>
   </si>
   <si>
-    <t>2022-09-08 00:00:00</t>
+    <t>0000-00-00 00:00:00</t>
   </si>
 </sst>
 </file>
@@ -524,7 +524,7 @@
     </row>
     <row r="2" spans="1:23">
       <c r="A2">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="B2" t="s">
         <v>23</v>
